--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9042323333333334</v>
+        <v>1.126711</v>
       </c>
       <c r="H2">
-        <v>2.712697</v>
+        <v>3.380133</v>
       </c>
       <c r="I2">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="J2">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>148.0336704925924</v>
+        <v>179.6919685034773</v>
       </c>
       <c r="R2">
-        <v>1332.303034433332</v>
+        <v>1617.227716531296</v>
       </c>
       <c r="S2">
-        <v>0.006323707104528706</v>
+        <v>0.008335767127947806</v>
       </c>
       <c r="T2">
-        <v>0.006323707104528705</v>
+        <v>0.008335767127947806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9042323333333334</v>
+        <v>1.126711</v>
       </c>
       <c r="H3">
-        <v>2.712697</v>
+        <v>3.380133</v>
       </c>
       <c r="I3">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="J3">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>156.032972378803</v>
+        <v>194.423556713367</v>
       </c>
       <c r="R3">
-        <v>1404.296751409227</v>
+        <v>1749.812010420303</v>
       </c>
       <c r="S3">
-        <v>0.006665421540175499</v>
+        <v>0.009019153757662896</v>
       </c>
       <c r="T3">
-        <v>0.006665421540175498</v>
+        <v>0.009019153757662896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9042323333333334</v>
+        <v>1.126711</v>
       </c>
       <c r="H4">
-        <v>2.712697</v>
+        <v>3.380133</v>
       </c>
       <c r="I4">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="J4">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>100.8112029741801</v>
+        <v>83.81344623939566</v>
       </c>
       <c r="R4">
-        <v>907.3008267676212</v>
+        <v>754.3210161545611</v>
       </c>
       <c r="S4">
-        <v>0.004306456215958035</v>
+        <v>0.003888038936079966</v>
       </c>
       <c r="T4">
-        <v>0.004306456215958035</v>
+        <v>0.003888038936079967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9042323333333334</v>
+        <v>1.126711</v>
       </c>
       <c r="H5">
-        <v>2.712697</v>
+        <v>3.380133</v>
       </c>
       <c r="I5">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="J5">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>54.01374273708111</v>
+        <v>65.81638853012433</v>
       </c>
       <c r="R5">
-        <v>486.12368463373</v>
+        <v>592.347496771119</v>
       </c>
       <c r="S5">
-        <v>0.002307360802120741</v>
+        <v>0.003053169780256676</v>
       </c>
       <c r="T5">
-        <v>0.002307360802120741</v>
+        <v>0.003053169780256676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9042323333333334</v>
+        <v>1.126711</v>
       </c>
       <c r="H6">
-        <v>2.712697</v>
+        <v>3.380133</v>
       </c>
       <c r="I6">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="J6">
-        <v>0.02296187390225878</v>
+        <v>0.02794157075411019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>78.63021926722878</v>
+        <v>78.58382877557601</v>
       </c>
       <c r="R6">
-        <v>707.671973405059</v>
+        <v>707.2544589801842</v>
       </c>
       <c r="S6">
-        <v>0.003358928239475803</v>
+        <v>0.00364544115216284</v>
       </c>
       <c r="T6">
-        <v>0.003358928239475802</v>
+        <v>0.003645441152162841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>111.244217</v>
       </c>
       <c r="I7">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="J7">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>6070.670540640716</v>
+        <v>5913.877453152878</v>
       </c>
       <c r="R7">
-        <v>54636.03486576644</v>
+        <v>53224.8970783759</v>
       </c>
       <c r="S7">
-        <v>0.2593270997021167</v>
+        <v>0.274340059176042</v>
       </c>
       <c r="T7">
-        <v>0.2593270997021166</v>
+        <v>0.274340059176042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>111.244217</v>
       </c>
       <c r="I8">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="J8">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>6398.711628487282</v>
@@ -948,10 +948,10 @@
         <v>57588.40465638554</v>
       </c>
       <c r="S8">
-        <v>0.2733403694595295</v>
+        <v>0.2968311299507494</v>
       </c>
       <c r="T8">
-        <v>0.2733403694595294</v>
+        <v>0.2968311299507494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>111.244217</v>
       </c>
       <c r="I9">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="J9">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>4134.137848676331</v>
+        <v>2758.400690438265</v>
       </c>
       <c r="R9">
-        <v>37207.24063808698</v>
+        <v>24825.60621394439</v>
       </c>
       <c r="S9">
-        <v>0.1766022337876417</v>
+        <v>0.1279600084108314</v>
       </c>
       <c r="T9">
-        <v>0.1766022337876417</v>
+        <v>0.1279600084108314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>111.244217</v>
       </c>
       <c r="I10">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="J10">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>2215.034159003392</v>
+        <v>2166.096010956214</v>
       </c>
       <c r="R10">
-        <v>19935.30743103053</v>
+        <v>19494.86409860593</v>
       </c>
       <c r="S10">
-        <v>0.09462190055447171</v>
+        <v>0.1004834666484176</v>
       </c>
       <c r="T10">
-        <v>0.0946219005544717</v>
+        <v>0.1004834666484177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>111.244217</v>
       </c>
       <c r="I11">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="J11">
-        <v>0.9416369329525237</v>
+        <v>0.9195904895727732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>3224.524218857166</v>
+        <v>2586.287729210957</v>
       </c>
       <c r="R11">
-        <v>29020.7179697145</v>
+        <v>23276.58956289861</v>
       </c>
       <c r="S11">
-        <v>0.1377453294487641</v>
+        <v>0.1199758253867327</v>
       </c>
       <c r="T11">
-        <v>0.1377453294487641</v>
+        <v>0.1199758253867327</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.394089333333333</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H12">
-        <v>4.182268</v>
+        <v>0.080176</v>
       </c>
       <c r="I12">
-        <v>0.03540119314521748</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="J12">
-        <v>0.03540119314521747</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>228.2291324920231</v>
+        <v>4.262253368945778</v>
       </c>
       <c r="R12">
-        <v>2054.062192428208</v>
+        <v>38.360280320512</v>
       </c>
       <c r="S12">
-        <v>0.009749499433457943</v>
+        <v>0.0001977225349565663</v>
       </c>
       <c r="T12">
-        <v>0.009749499433457938</v>
+        <v>0.0001977225349565663</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.394089333333333</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H13">
-        <v>4.182268</v>
+        <v>0.080176</v>
       </c>
       <c r="I13">
-        <v>0.03540119314521748</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="J13">
-        <v>0.03540119314521747</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>240.561960043732</v>
+        <v>4.611683351823999</v>
       </c>
       <c r="R13">
-        <v>2165.057640393587</v>
+        <v>41.50515016641599</v>
       </c>
       <c r="S13">
-        <v>0.01027633355807401</v>
+        <v>0.0002139323132179652</v>
       </c>
       <c r="T13">
-        <v>0.01027633355807401</v>
+        <v>0.0002139323132179652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.394089333333333</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H14">
-        <v>4.182268</v>
+        <v>0.080176</v>
       </c>
       <c r="I14">
-        <v>0.03540119314521748</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="J14">
-        <v>0.03540119314521747</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>155.4244606900138</v>
+        <v>1.988036229843555</v>
       </c>
       <c r="R14">
-        <v>1398.820146210124</v>
+        <v>17.892326068592</v>
       </c>
       <c r="S14">
-        <v>0.006639427118252564</v>
+        <v>9.222341539198231E-05</v>
       </c>
       <c r="T14">
-        <v>0.006639427118252562</v>
+        <v>9.222341539198234E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.394089333333333</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H15">
-        <v>4.182268</v>
+        <v>0.080176</v>
       </c>
       <c r="I15">
-        <v>0.03540119314521748</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="J15">
-        <v>0.03540119314521747</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>83.27503875645776</v>
+        <v>1.561150039596444</v>
       </c>
       <c r="R15">
-        <v>749.4753488081199</v>
+        <v>14.050350356368</v>
       </c>
       <c r="S15">
-        <v>0.003557345788034531</v>
+        <v>7.242050543628289E-05</v>
       </c>
       <c r="T15">
-        <v>0.00355734578803453</v>
+        <v>7.24205054362829E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.394089333333333</v>
+        <v>0.02672533333333333</v>
       </c>
       <c r="H16">
-        <v>4.182268</v>
+        <v>0.080176</v>
       </c>
       <c r="I16">
-        <v>0.03540119314521748</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="J16">
-        <v>0.03540119314521747</v>
+        <v>0.000662767819130649</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>121.2271956190884</v>
+        <v>1.863990871338667</v>
       </c>
       <c r="R16">
-        <v>1091.044760571796</v>
+        <v>16.775917842048</v>
       </c>
       <c r="S16">
-        <v>0.005178587247398433</v>
+        <v>8.646905012785232E-05</v>
       </c>
       <c r="T16">
-        <v>0.005178587247398431</v>
+        <v>8.646905012785234E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.088982666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.266948</v>
+      </c>
+      <c r="I17">
+        <v>0.05180517185398602</v>
+      </c>
+      <c r="J17">
+        <v>0.05180517185398601</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N17">
+        <v>478.450912</v>
+      </c>
+      <c r="O17">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P17">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q17">
+        <v>333.1585540062863</v>
+      </c>
+      <c r="R17">
+        <v>2998.426986056576</v>
+      </c>
+      <c r="S17">
+        <v>0.01545495965127947</v>
+      </c>
+      <c r="T17">
+        <v>0.01545495965127947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.088982666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.266948</v>
+      </c>
+      <c r="I18">
+        <v>0.05180517185398602</v>
+      </c>
+      <c r="J18">
+        <v>0.05180517185398601</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P18">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q18">
+        <v>360.471709219052</v>
+      </c>
+      <c r="R18">
+        <v>3244.245382971468</v>
+      </c>
+      <c r="S18">
+        <v>0.01672199514139768</v>
+      </c>
+      <c r="T18">
+        <v>0.01672199514139768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.088982666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.266948</v>
+      </c>
+      <c r="I19">
+        <v>0.05180517185398602</v>
+      </c>
+      <c r="J19">
+        <v>0.05180517185398601</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N19">
+        <v>223.163117</v>
+      </c>
+      <c r="O19">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P19">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q19">
+        <v>155.3946277507684</v>
+      </c>
+      <c r="R19">
+        <v>1398.551649756916</v>
+      </c>
+      <c r="S19">
+        <v>0.007208632865744772</v>
+      </c>
+      <c r="T19">
+        <v>0.007208632865744772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.088982666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.266948</v>
+      </c>
+      <c r="I20">
+        <v>0.05180517185398602</v>
+      </c>
+      <c r="J20">
+        <v>0.05180517185398601</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N20">
+        <v>175.243843</v>
+      </c>
+      <c r="O20">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P20">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q20">
+        <v>122.0271168223516</v>
+      </c>
+      <c r="R20">
+        <v>1098.244051401164</v>
+      </c>
+      <c r="S20">
+        <v>0.005660740641874155</v>
+      </c>
+      <c r="T20">
+        <v>0.005660740641874155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.088982666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.266948</v>
+      </c>
+      <c r="I21">
+        <v>0.05180517185398602</v>
+      </c>
+      <c r="J21">
+        <v>0.05180517185398601</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.746216</v>
+      </c>
+      <c r="N21">
+        <v>209.238648</v>
+      </c>
+      <c r="O21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q21">
+        <v>145.6986362895894</v>
+      </c>
+      <c r="R21">
+        <v>1311.287726606304</v>
+      </c>
+      <c r="S21">
+        <v>0.006758843553689931</v>
+      </c>
+      <c r="T21">
+        <v>0.006758843553689931</v>
       </c>
     </row>
   </sheetData>
